--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Edn2-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Edn2-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.995795333333333</v>
+        <v>0.7195943333333332</v>
       </c>
       <c r="N2">
-        <v>5.987386</v>
+        <v>2.158783</v>
       </c>
       <c r="O2">
-        <v>0.03246541069287895</v>
+        <v>0.03204779321415739</v>
       </c>
       <c r="P2">
-        <v>0.0423018942495388</v>
+        <v>0.03468223907394029</v>
       </c>
       <c r="Q2">
-        <v>0.3745715334251111</v>
+        <v>0.1350537043447778</v>
       </c>
       <c r="R2">
-        <v>3.371143800826</v>
+        <v>1.215483339103</v>
       </c>
       <c r="S2">
-        <v>0.03246541069287895</v>
+        <v>0.03204779321415739</v>
       </c>
       <c r="T2">
-        <v>0.0423018942495388</v>
+        <v>0.03468223907394029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,13 +620,13 @@
         <v>16.53477466666667</v>
       </c>
       <c r="N3">
-        <v>49.604324</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O3">
-        <v>0.2689695888660982</v>
+        <v>0.7363913455312854</v>
       </c>
       <c r="P3">
-        <v>0.3504629346041594</v>
+        <v>0.7969254084681946</v>
       </c>
       <c r="Q3">
         <v>3.103252021031556</v>
@@ -638,10 +635,10 @@
         <v>27.929268189284</v>
       </c>
       <c r="S3">
-        <v>0.2689695888660982</v>
+        <v>0.7363913455312854</v>
       </c>
       <c r="T3">
-        <v>0.3504629346041594</v>
+        <v>0.7969254084681946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05109933333333333</v>
+        <v>5.116736</v>
       </c>
       <c r="N4">
-        <v>0.153298</v>
+        <v>10.233472</v>
       </c>
       <c r="O4">
-        <v>0.0008312279396045214</v>
+        <v>0.2278785277530463</v>
       </c>
       <c r="P4">
-        <v>0.001083076284820421</v>
+        <v>0.1644073176694804</v>
       </c>
       <c r="Q4">
-        <v>0.009590339913111111</v>
+        <v>0.9603107180586666</v>
       </c>
       <c r="R4">
-        <v>0.08631305921799999</v>
+        <v>5.761864308351999</v>
       </c>
       <c r="S4">
-        <v>0.0008312279396045214</v>
+        <v>0.2278785277530463</v>
       </c>
       <c r="T4">
-        <v>0.001083076284820421</v>
+        <v>0.1644073176694804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,93 +738,31 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>42.884111</v>
+        <v>0.08268233333333334</v>
       </c>
       <c r="N5">
-        <v>85.76822200000001</v>
+        <v>0.248047</v>
       </c>
       <c r="O5">
-        <v>0.697591708208227</v>
+        <v>0.003682333501510851</v>
       </c>
       <c r="P5">
-        <v>0.6059669874324066</v>
+        <v>0.003985034788384784</v>
       </c>
       <c r="Q5">
-        <v>8.048504247183669</v>
+        <v>0.01551784788077778</v>
       </c>
       <c r="R5">
-        <v>48.291025483102</v>
+        <v>0.139660630927</v>
       </c>
       <c r="S5">
-        <v>0.697591708208227</v>
+        <v>0.003682333501510851</v>
       </c>
       <c r="T5">
-        <v>0.6059669874324066</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1876803333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.563041</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.008733333333333334</v>
-      </c>
-      <c r="N6">
-        <v>0.0262</v>
-      </c>
-      <c r="O6">
-        <v>0.0001420642931912906</v>
-      </c>
-      <c r="P6">
-        <v>0.0001851074290747108</v>
-      </c>
-      <c r="Q6">
-        <v>0.001639074911111111</v>
-      </c>
-      <c r="R6">
-        <v>0.0147516742</v>
-      </c>
-      <c r="S6">
-        <v>0.0001420642931912906</v>
-      </c>
-      <c r="T6">
-        <v>0.0001851074290747108</v>
+        <v>0.003985034788384784</v>
       </c>
     </row>
   </sheetData>
